--- a/ Зал 3.xlsx
+++ b/ Зал 3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Дата и время</t>
   </si>
@@ -96,12 +96,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -110,7 +125,9 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
